--- a/07-20-25 to 07-26-25 Madison Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Madison Schedule.xlsx
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1449,10 +1449,15 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1531,13 +1536,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1609,12 +1613,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1684,22 +1689,9 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1825,7 +1817,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1890,7 +1886,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1958,7 +1954,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2031,7 +2027,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
+          <t>350 N EDWARDS BLVD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2102,7 +2098,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>350 N EDWARDS BLVD</t>
+          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2149,7 +2145,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2197,7 +2193,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:15 at IL office </t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2238,11 +2234,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 5:15 at IL office </t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2280,9 +2272,22 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2325,20 +2330,15 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2377,15 +2377,20 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2437,20 +2442,15 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2497,12 +2497,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2550,16 +2550,8 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2670,7 +2662,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2715,7 +2711,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2758,7 +2754,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2817,7 +2813,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2864,7 +2860,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2903,7 +2899,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2946,7 +2942,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>*JEFF IS THE DM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2987,11 +2983,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>*JEFF IS THE DM</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3029,9 +3021,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
@@ -3066,19 +3070,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
@@ -3125,12 +3125,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3176,12 +3176,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3227,12 +3227,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3270,12 +3270,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3321,16 +3321,8 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>

--- a/07-20-25 to 07-26-25 Madison Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Madison Schedule.xlsx
@@ -2925,11 +2925,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2968,11 +2964,7 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3007,11 +2999,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>CONTACT IS MATT WECHSLER</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3054,11 +3042,7 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>NEW - WILD ONION MARKET, CHICAGO</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3109,11 +3093,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>7007 N CLARK ST</t>
-        </is>
-      </c>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3160,11 +3140,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GY78au1TmRaEa7Na9</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3211,11 +3187,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:15 at IL office</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3296,23 +3268,9 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Equip</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3341,22 +3299,9 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>

--- a/07-20-25 to 07-26-25 Madison Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1552,16 +1552,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1630,14 +1624,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-Rx</t>
+          <t>Driver 1/2,
+Silver Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1700,12 +1694,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Camry 3,
+Rx</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1765,9 +1761,21 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Silver Van</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1824,9 +1832,21 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1892,11 +1912,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
@@ -1960,11 +1976,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -2035,7 +2047,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #304, JUNEAU</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2106,7 +2118,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>100 S WESTERN AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2153,7 +2165,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T244KA82oJ12</t>
+          <t>PIGGLY WIGGLY #304, JUNEAU</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2201,7 +2213,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 at IL office</t>
+          <t>100 S WESTERN AVE</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2240,7 +2252,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ALCOHOL AND BACKROOM DONE BY STORE</t>
+          <t>https://goo.gl/maps/T244KA82oJ12</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2292,7 +2304,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>*IL Meet is 5:15 at IL office</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2341,7 +2353,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ALCOHOL AND BACKROOM DONE BY STORE</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2392,22 +2408,13 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van, Equip</t>
-        </is>
-      </c>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2452,16 +2459,8 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2509,17 +2508,17 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, Red Camry, Equip</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2556,15 +2555,19 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2611,20 +2614,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2669,9 +2667,21 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2716,9 +2726,21 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -2760,11 +2782,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2819,11 +2837,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2868,7 +2882,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2907,7 +2921,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CONTACT IS SUJAN MALLA (HE'S BUYING THIS STORE)</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2946,7 +2960,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>PLAIN ONE STOP MOBIL, PLAIN</t>
+          <t>KELLEY #20, FOREST HILLS MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2981,7 +2995,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1125 WACHTER AVE</t>
+          <t>5902 FOREST HILLS RD</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3028,7 +3042,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/dMH6ZDvNM4WwDXGt8</t>
+          <t>https://goo.gl/maps/4SWJvN8ZsuH2</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3067,7 +3081,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6:15 am meet for Sarah &amp; Lori at **Festival Foods Baraboo</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3169,12 +3183,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3216,7 +3230,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3252,8 +3266,16 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3283,8 +3305,16 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3314,10 +3344,14 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3349,10 +3383,14 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3385,11 +3423,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>KELLEY #20, FOREST HILLS MOBIL, LOVES PARK</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3420,11 +3454,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>5902 FOREST HILLS RD</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3455,11 +3485,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/4SWJvN8ZsuH2</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3486,11 +3512,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
@@ -3563,21 +3585,9 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
@@ -3610,16 +3620,8 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
@@ -3653,16 +3655,8 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
@@ -3696,16 +3690,8 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
@@ -3730,41 +3716,6 @@
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
